--- a/Week 3 - Resource Allocation/homework/Wk 3 Sample BOE template.xlsx
+++ b/Week 3 - Resource Allocation/homework/Wk 3 Sample BOE template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My contents\Boeing 2014-15\Project 420 materials\Boeing Renton au 2014 CP420 Forms and templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksey\Documents\School\UW_Project_Management\PROJECT_420\Week 3 - Resource Allocation\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-15" windowWidth="18690" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$X$44</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -782,6 +782,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -817,6 +834,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
